--- a/notebooks/evaluation/main_table/tables/tsp20.xlsx
+++ b/notebooks/evaluation/main_table/tables/tsp20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3364,7 +3364,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>symnco-tsp20</t>
+          <t>am-critic-tsp20</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3374,19 +3374,19 @@
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>0.05289377877488732</v>
+        <v>0.6355879362672567</v>
       </c>
       <c r="E114" t="n">
-        <v>3.837822198867798</v>
+        <v>3.860954284667969</v>
       </c>
       <c r="F114" t="n">
-        <v>560.6829833984375</v>
+        <v>316.4047241210938</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>symnco-tsp20</t>
+          <t>am-critic-tsp20</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3396,95 +3396,95 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>num_augment_2_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.01989013107959181</v>
+        <v>0.009755385690368712</v>
       </c>
       <c r="E115" t="n">
-        <v>3.836518287658691</v>
+        <v>3.836116313934326</v>
       </c>
       <c r="F115" t="n">
-        <v>756.0130004882812</v>
+        <v>166173.640625</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>symnco-tsp20</t>
+          <t>am-critic-tsp20</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>num_augment_4_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.007369061495410278</v>
+        <v>0.1521898549981415</v>
       </c>
       <c r="E116" t="n">
-        <v>3.836020708084106</v>
+        <v>3.841774225234985</v>
       </c>
       <c r="F116" t="n">
-        <v>1452.46728515625</v>
+        <v>169786.640625</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>symnco-tsp20</t>
+          <t>am-critic-tsp20</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>num_augment_8_</t>
+          <t>num_starts_20_</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.002009147465287242</v>
+        <v>0.3615874098613858</v>
       </c>
       <c r="E117" t="n">
-        <v>3.835807085037231</v>
+        <v>3.84996485710144</v>
       </c>
       <c r="F117" t="n">
-        <v>2870.052490234375</v>
+        <v>441.6253051757812</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>symnco-tsp20</t>
+          <t>am-critic-tsp20</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>num_augment_16_</t>
+          <t>num_starts_20_num_augment_16_</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.0009004357707453892</v>
+        <v>0.01185924993478693</v>
       </c>
       <c r="E118" t="n">
-        <v>3.835763216018677</v>
+        <v>3.836198329925537</v>
       </c>
       <c r="F118" t="n">
-        <v>5729.01708984375</v>
+        <v>6588.75927734375</v>
       </c>
     </row>
     <row r="119">
@@ -3495,22 +3495,18 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>augment</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>num_augment_32_</t>
-        </is>
-      </c>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>1.689823392325707e-05</v>
+        <v>0.05289377877488732</v>
       </c>
       <c r="E119" t="n">
-        <v>3.835728168487549</v>
+        <v>3.837822198867798</v>
       </c>
       <c r="F119" t="n">
-        <v>11470.0615234375</v>
+        <v>560.6829833984375</v>
       </c>
     </row>
     <row r="120">
@@ -3526,17 +3522,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>num_augment_64_</t>
+          <t>num_augment_2_</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.0001341093934570381</v>
+        <v>0.01989013107959181</v>
       </c>
       <c r="E120" t="n">
-        <v>3.835722208023071</v>
+        <v>3.836518287658691</v>
       </c>
       <c r="F120" t="n">
-        <v>22966.189453125</v>
+        <v>756.0130004882812</v>
       </c>
     </row>
     <row r="121">
@@ -3552,17 +3548,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>num_augment_128_</t>
+          <t>num_augment_4_</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-0.0002865312580979662</v>
+        <v>0.007369061495410278</v>
       </c>
       <c r="E121" t="n">
-        <v>3.835716009140015</v>
+        <v>3.836020708084106</v>
       </c>
       <c r="F121" t="n">
-        <v>45998.140625</v>
+        <v>1452.46728515625</v>
       </c>
     </row>
     <row r="122">
@@ -3578,17 +3574,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>num_augment_256_</t>
+          <t>num_augment_8_</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-0.0003561206085578306</v>
+        <v>0.002009147465287242</v>
       </c>
       <c r="E122" t="n">
-        <v>3.835713624954224</v>
+        <v>3.835807085037231</v>
       </c>
       <c r="F122" t="n">
-        <v>91950.859375</v>
+        <v>2870.052490234375</v>
       </c>
     </row>
     <row r="123">
@@ -3604,17 +3600,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>num_augment_512_</t>
+          <t>num_augment_16_</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-0.0003409289092815015</v>
+        <v>0.0009004357707453892</v>
       </c>
       <c r="E123" t="n">
-        <v>3.835714101791382</v>
+        <v>3.835763216018677</v>
       </c>
       <c r="F123" t="n">
-        <v>183763.3125</v>
+        <v>5729.01708984375</v>
       </c>
     </row>
     <row r="124">
@@ -3630,17 +3626,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>num_augment_1280_</t>
+          <t>num_augment_32_</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-0.0003718851075973362</v>
+        <v>1.689823392325707e-05</v>
       </c>
       <c r="E124" t="n">
-        <v>3.835712909698486</v>
+        <v>3.835728168487549</v>
       </c>
       <c r="F124" t="n">
-        <v>473630.03125</v>
+        <v>11470.0615234375</v>
       </c>
     </row>
     <row r="125">
@@ -3651,22 +3647,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>augment_dihedral_8</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>num_augment_8_force_dihedral_True_</t>
+          <t>num_augment_64_</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.002666615910129622</v>
+        <v>-0.0001341093934570381</v>
       </c>
       <c r="E125" t="n">
-        <v>3.83583402633667</v>
+        <v>3.835722208023071</v>
       </c>
       <c r="F125" t="n">
-        <v>2882.502197265625</v>
+        <v>22966.189453125</v>
       </c>
     </row>
     <row r="126">
@@ -3677,22 +3673,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>samples_2_softmax_temp_1.0_</t>
+          <t>num_augment_128_</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.04578206571750343</v>
+        <v>-0.0002865312580979662</v>
       </c>
       <c r="E126" t="n">
-        <v>3.837537050247192</v>
+        <v>3.835716009140015</v>
       </c>
       <c r="F126" t="n">
-        <v>767.7986450195312</v>
+        <v>45998.140625</v>
       </c>
     </row>
     <row r="127">
@@ -3703,22 +3699,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>samples_4_softmax_temp_1.0_</t>
+          <t>num_augment_256_</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.03920228336937726</v>
+        <v>-0.0003561206085578306</v>
       </c>
       <c r="E127" t="n">
-        <v>3.837278842926025</v>
+        <v>3.835713624954224</v>
       </c>
       <c r="F127" t="n">
-        <v>1468.489501953125</v>
+        <v>91950.859375</v>
       </c>
     </row>
     <row r="128">
@@ -3729,22 +3725,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>samples_8_softmax_temp_1.0_</t>
+          <t>num_augment_512_</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.03508425725158304</v>
+        <v>-0.0003409289092815015</v>
       </c>
       <c r="E128" t="n">
-        <v>3.837114810943604</v>
+        <v>3.835714101791382</v>
       </c>
       <c r="F128" t="n">
-        <v>2901.81494140625</v>
+        <v>183763.3125</v>
       </c>
     </row>
     <row r="129">
@@ -3755,22 +3751,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>samples_16_softmax_temp_1.0_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.03063587646465749</v>
+        <v>-0.0003718851075973362</v>
       </c>
       <c r="E129" t="n">
-        <v>3.83694052696228</v>
+        <v>3.835712909698486</v>
       </c>
       <c r="F129" t="n">
-        <v>5782.56494140625</v>
+        <v>473630.03125</v>
       </c>
     </row>
     <row r="130">
@@ -3781,22 +3777,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment_dihedral_8</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>samples_32_softmax_temp_1.0_</t>
+          <t>num_augment_8_force_dihedral_True_</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.02726527745835483</v>
+        <v>0.002666615910129622</v>
       </c>
       <c r="E130" t="n">
-        <v>3.836805105209351</v>
+        <v>3.83583402633667</v>
       </c>
       <c r="F130" t="n">
-        <v>11555.09765625</v>
+        <v>2882.502197265625</v>
       </c>
     </row>
     <row r="131">
@@ -3812,17 +3808,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>samples_64_softmax_temp_1.0_</t>
+          <t>samples_2_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.02443075354676694</v>
+        <v>0.04578206571750343</v>
       </c>
       <c r="E131" t="n">
-        <v>3.836694240570068</v>
+        <v>3.837537050247192</v>
       </c>
       <c r="F131" t="n">
-        <v>23076.638671875</v>
+        <v>767.7986450195312</v>
       </c>
     </row>
     <row r="132">
@@ -3838,17 +3834,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>samples_128_softmax_temp_1.0_</t>
+          <t>samples_4_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.02151357621187344</v>
+        <v>0.03920228336937726</v>
       </c>
       <c r="E132" t="n">
-        <v>3.836575746536255</v>
+        <v>3.837278842926025</v>
       </c>
       <c r="F132" t="n">
-        <v>46120.60546875</v>
+        <v>1468.489501953125</v>
       </c>
     </row>
     <row r="133">
@@ -3864,17 +3860,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>samples_256_softmax_temp_1.0_</t>
+          <t>samples_8_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.01931980077642947</v>
+        <v>0.03508425725158304</v>
       </c>
       <c r="E133" t="n">
-        <v>3.83648943901062</v>
+        <v>3.837114810943604</v>
       </c>
       <c r="F133" t="n">
-        <v>92306.1640625</v>
+        <v>2901.81494140625</v>
       </c>
     </row>
     <row r="134">
@@ -3890,17 +3886,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>samples_512_softmax_temp_1.0_</t>
+          <t>samples_16_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.01711897493805736</v>
+        <v>0.03063587646465749</v>
       </c>
       <c r="E134" t="n">
-        <v>3.83640193939209</v>
+        <v>3.83694052696228</v>
       </c>
       <c r="F134" t="n">
-        <v>184629.25</v>
+        <v>5782.56494140625</v>
       </c>
     </row>
     <row r="135">
@@ -3916,17 +3912,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>samples_1280_softmax_temp_1.0_</t>
+          <t>samples_32_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.01473791635362431</v>
+        <v>0.02726527745835483</v>
       </c>
       <c r="E135" t="n">
-        <v>3.836310863494873</v>
+        <v>3.836805105209351</v>
       </c>
       <c r="F135" t="n">
-        <v>476430.5</v>
+        <v>11555.09765625</v>
       </c>
     </row>
     <row r="136">
@@ -3937,22 +3933,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>greedy_multistart</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>num_starts_20_</t>
+          <t>samples_64_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.02754466840997338</v>
+        <v>0.02443075354676694</v>
       </c>
       <c r="E136" t="n">
-        <v>3.836816310882568</v>
+        <v>3.836694240570068</v>
       </c>
       <c r="F136" t="n">
-        <v>682.1357421875</v>
+        <v>23076.638671875</v>
       </c>
     </row>
     <row r="137">
@@ -3963,22 +3959,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment_dihedral_8</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_8_force_dihedral_True_</t>
+          <t>samples_128_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-0.000146689387747756</v>
+        <v>0.02151357621187344</v>
       </c>
       <c r="E137" t="n">
-        <v>3.835721015930176</v>
+        <v>3.836575746536255</v>
       </c>
       <c r="F137" t="n">
-        <v>5215.828125</v>
+        <v>46120.60546875</v>
       </c>
     </row>
     <row r="138">
@@ -3989,22 +3985,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_2_</t>
+          <t>samples_256_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.007905882375780493</v>
+        <v>0.01931980077642947</v>
       </c>
       <c r="E138" t="n">
-        <v>3.836038589477539</v>
+        <v>3.83648943901062</v>
       </c>
       <c r="F138" t="n">
-        <v>1325.598876953125</v>
+        <v>92306.1640625</v>
       </c>
     </row>
     <row r="139">
@@ -4015,22 +4011,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_4_</t>
+          <t>samples_512_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.001905007047753315</v>
+        <v>0.01711897493805736</v>
       </c>
       <c r="E139" t="n">
-        <v>3.835801601409912</v>
+        <v>3.83640193939209</v>
       </c>
       <c r="F139" t="n">
-        <v>2613.97607421875</v>
+        <v>184629.25</v>
       </c>
     </row>
     <row r="140">
@@ -4041,22 +4037,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_8_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-0.0002749219675024506</v>
+        <v>0.01473791635362431</v>
       </c>
       <c r="E140" t="n">
-        <v>3.835716485977173</v>
+        <v>3.836310863494873</v>
       </c>
       <c r="F140" t="n">
-        <v>5210.6826171875</v>
+        <v>476430.5</v>
       </c>
     </row>
     <row r="141">
@@ -4067,21 +4063,151 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>greedy_multistart</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>num_starts_20_</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.02754466840997338</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.836816310882568</v>
+      </c>
+      <c r="F141" t="n">
+        <v>682.1357421875</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>symnco-tsp20</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment_dihedral_8</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>num_starts_20_num_augment_8_force_dihedral_True_</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.000146689387747756</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.835721015930176</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5215.828125</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>symnco-tsp20</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
           <t>greedy_multistart_augment</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>num_starts_20_num_augment_2_</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0.007905882375780493</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.836038589477539</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1325.598876953125</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>symnco-tsp20</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>num_starts_20_num_augment_4_</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0.001905007047753315</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.835801601409912</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2613.97607421875</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>symnco-tsp20</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>num_starts_20_num_augment_8_</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.0002749219675024506</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.835716485977173</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5210.6826171875</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>symnco-tsp20</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>num_starts_20_num_augment_16_</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D146" t="n">
         <v>-0.000462220032204641</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E146" t="n">
         <v>3.8357093334198</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F146" t="n">
         <v>10427.3486328125</v>
       </c>
     </row>
